--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2358261.736962069</v>
+        <v>2462441.371413141</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>104.7421674867591</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>205.6368254889302</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,10 +712,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -744,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804553998</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>4.880279655985859</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>180.5110866792293</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -905,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -914,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>274.7944255145757</v>
+        <v>10.80393931203998</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1066,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,19 +1101,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>28.4693208302328</v>
+        <v>29.94266563010669</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>289.1825630108428</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>19.84006383513551</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1196,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1294,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>132.4101550285414</v>
+        <v>101.2738960913436</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>27.0291980517616</v>
+        <v>108.5163679066094</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1585,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,10 +1767,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>104.6857048437762</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1783,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>245.8796921214435</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1901,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>111.306220275312</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,19 +2247,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>75.55208621972949</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2299,10 +2301,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>189.4027099929735</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2333,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>59.00369384633101</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,16 +2487,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>19.91555826189108</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>73.93222849083736</v>
       </c>
       <c r="C28" t="n">
-        <v>53.07327741456153</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2725,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>88.27810958517581</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>50.5268247622971</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3184,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>82.08837997182205</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3202,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>33.246171199101</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3326,7 +3328,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3427,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>28.45765197016587</v>
+        <v>40.37234576591548</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,10 +3441,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3661,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>129.1078928223857</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>66.25628701154712</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3910,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>19.91555826189058</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>2.445727774093873</v>
       </c>
     </row>
     <row r="44">
@@ -4037,7 +4039,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4141,16 +4143,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4183,25 +4185,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>132.6036163643577</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>134.0367616438396</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1528.069587875904</v>
+        <v>1555.338782035317</v>
       </c>
       <c r="C2" t="n">
-        <v>1528.069587875904</v>
+        <v>1186.376265094905</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4340,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520488</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176917</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2304.808759915837</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1914.669427940025</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4385,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811075</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999805</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387292</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4427,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125855</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619335</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431606</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266129</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2618.12087972108</v>
+        <v>359.619250712236</v>
       </c>
       <c r="C4" t="n">
-        <v>2618.12087972108</v>
+        <v>359.619250712236</v>
       </c>
       <c r="D4" t="n">
-        <v>2618.12087972108</v>
+        <v>359.619250712236</v>
       </c>
       <c r="E4" t="n">
-        <v>2618.12087972108</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F4" t="n">
-        <v>2471.230932223169</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G4" t="n">
-        <v>2471.230932223169</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.605821609171</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>3133.919937435997</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>2912.153322005523</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>2623.050455131166</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V4" t="n">
-        <v>2618.12087972108</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="W4" t="n">
-        <v>2618.12087972108</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="X4" t="n">
-        <v>2618.12087972108</v>
+        <v>359.619250712236</v>
       </c>
       <c r="Y4" t="n">
-        <v>2618.12087972108</v>
+        <v>359.619250712236</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2345.167438673965</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4562,16 +4564,16 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
         <v>1573.776739001388</v>
@@ -4580,13 +4582,13 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.60582160917</v>
@@ -4601,16 +4603,16 @@
         <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520487</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X5" t="n">
-        <v>3009.337405520487</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y5" t="n">
-        <v>2731.767278738087</v>
+        <v>1941.127034633561</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.51211643218339</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="C7" t="n">
-        <v>66.51211643218339</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="D7" t="n">
-        <v>66.51211643218339</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218339</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218339</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>639.3706644025388</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>610.6137746750309</v>
+        <v>890.6418890200973</v>
       </c>
       <c r="V7" t="n">
-        <v>355.929286469144</v>
+        <v>890.6418890200973</v>
       </c>
       <c r="W7" t="n">
-        <v>66.51211643218339</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="X7" t="n">
-        <v>66.51211643218339</v>
+        <v>601.2247189831368</v>
       </c>
       <c r="Y7" t="n">
-        <v>66.51211643218339</v>
+        <v>380.4321398396066</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1681.836054204827</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1312.873537264415</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>954.6078386576646</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528559</v>
+        <v>954.6078386576646</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389512</v>
+        <v>543.6219338680571</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839476</v>
+        <v>128.5494837130536</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734405</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y8" t="n">
-        <v>2268.308520734405</v>
+        <v>1681.836054204827</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4896,10 +4898,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>532.4548862703364</v>
+        <v>626.9042569062802</v>
       </c>
       <c r="C10" t="n">
-        <v>363.5187033424295</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="D10" t="n">
-        <v>213.4020639300937</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962279</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596503</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588479</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886953</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068849</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596435</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181842</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181842</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181842</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>787.1393744762232</v>
+        <v>626.9042569062802</v>
       </c>
       <c r="V10" t="n">
-        <v>532.4548862703364</v>
+        <v>626.9042569062802</v>
       </c>
       <c r="W10" t="n">
-        <v>532.4548862703364</v>
+        <v>626.9042569062802</v>
       </c>
       <c r="X10" t="n">
-        <v>532.4548862703364</v>
+        <v>626.9042569062802</v>
       </c>
       <c r="Y10" t="n">
-        <v>532.4548862703364</v>
+        <v>626.9042569062802</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5035,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192548</v>
@@ -5042,34 +5044,34 @@
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5112,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438171</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
         <v>2516.421633107662</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>768.5380889459545</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>599.6019060180477</v>
       </c>
       <c r="D13" t="n">
-        <v>317.6151975578601</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>317.6151975578601</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1398.968683817742</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1170.979132919724</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>950.1865537761943</v>
       </c>
     </row>
     <row r="14">
@@ -5270,37 +5272,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5312,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>1344.266747951537</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1977.461080510509</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5507,22 +5509,22 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
         <v>2950.898526355938</v>
@@ -5534,28 +5536,28 @@
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
         <v>243.4633055756266</v>
@@ -5601,13 +5603,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5746,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5768,16 +5770,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>352.5519571452613</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>949.9304447718132</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>803.2707707770323</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C22" t="n">
-        <v>634.3345878491255</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D22" t="n">
-        <v>484.2179484367897</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E22" t="n">
-        <v>484.2179484367897</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>337.3280009388793</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>170.1319016537593</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W22" t="n">
-        <v>1433.70136564882</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X22" t="n">
-        <v>1205.711814750802</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y22" t="n">
-        <v>984.9192356072721</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="23">
@@ -5966,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5975,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>738.7889117913853</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.167399417937</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1963.765362972544</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O24" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>3233.200736907821</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>3173.601046153952</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797189</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797189</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R25" t="n">
-        <v>2426.846358063199</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S25" t="n">
-        <v>2243.991523718104</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T25" t="n">
-        <v>2024.390058741045</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U25" t="n">
-        <v>1735.314832085242</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V25" t="n">
-        <v>1480.630343879355</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>3414.849201738061</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>3414.849201738061</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6223,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6303,25 +6305,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3403484614391</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>983.3403484614391</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6455,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,37 +6475,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N30" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O30" t="n">
-        <v>2283.159972732779</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.8993044876693</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597624</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="D31" t="n">
-        <v>322.7933138979686</v>
+        <v>748.5648313007904</v>
       </c>
       <c r="E31" t="n">
-        <v>322.7933138979686</v>
+        <v>600.6517377183973</v>
       </c>
       <c r="F31" t="n">
-        <v>175.9033664000583</v>
+        <v>453.7617902204869</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>286.5656909353668</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>144.8538597775649</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614391</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.547769317909</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="32">
@@ -6680,34 +6682,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6734,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,25 +6779,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3234.40738903426</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C34" t="n">
-        <v>3065.471206106353</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D34" t="n">
-        <v>2915.354566694017</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E34" t="n">
-        <v>2767.441473111624</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>2620.551525613714</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>2453.355426328594</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3999.301626420637</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>3744.61713821475</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>3455.19996817779</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y34" t="n">
-        <v>3234.40738903426</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="35">
@@ -6923,61 +6925,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819236</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111692</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075785</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>835.5837926935562</v>
+        <v>3233.200736907821</v>
       </c>
       <c r="C37" t="n">
-        <v>666.6476097656493</v>
+        <v>3064.264553979915</v>
       </c>
       <c r="D37" t="n">
-        <v>637.9025067654818</v>
+        <v>3023.484406741616</v>
       </c>
       <c r="E37" t="n">
-        <v>489.9894131830887</v>
+        <v>2875.571313159223</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>2728.681365661313</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>2561.485266376193</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>4623.787448650995</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602304</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.014387565343</v>
+        <v>3642.838752636078</v>
       </c>
       <c r="X37" t="n">
-        <v>1238.024836667326</v>
+        <v>3414.849201738061</v>
       </c>
       <c r="Y37" t="n">
-        <v>1017.232257523796</v>
+        <v>3414.849201738061</v>
       </c>
     </row>
     <row r="38">
@@ -7151,37 +7153,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7190,22 +7192,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7245,10 +7247,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
         <v>243.4633055756266</v>
@@ -7257,13 +7259,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O39" t="n">
         <v>2319.799627685893</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C40" t="n">
-        <v>513.8536007400717</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D40" t="n">
-        <v>513.8536007400717</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E40" t="n">
-        <v>365.9405071576786</v>
+        <v>449.3439841395904</v>
       </c>
       <c r="F40" t="n">
-        <v>365.9405071576786</v>
+        <v>302.45403664168</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>302.45403664168</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>160.7422054838781</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="41">
@@ -7403,16 +7405,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7436,22 +7438,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,28 +7484,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.713683962606</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>580.8993044876688</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C43" t="n">
-        <v>411.9631215597619</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D43" t="n">
-        <v>261.8464821474262</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
-        <v>113.9333885650331</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>113.9333885650331</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="44">
@@ -7637,58 +7639,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7719,34 +7721,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3027.428036214345</v>
+        <v>3200.825397924057</v>
       </c>
       <c r="C46" t="n">
-        <v>2858.491853286438</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D46" t="n">
-        <v>2708.375213874102</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E46" t="n">
-        <v>2708.375213874102</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F46" t="n">
-        <v>2561.485266376192</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376192</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.77343521839</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866303</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296627</v>
+        <v>2417.922750296628</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822166</v>
+        <v>2679.612012822167</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998106</v>
+        <v>3070.010606998107</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729141</v>
+        <v>3492.020309729142</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389149</v>
+        <v>3909.43018138915</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098134</v>
+        <v>4278.959462098135</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671693</v>
+        <v>4571.634917671694</v>
       </c>
       <c r="Q46" t="n">
         <v>4690.833152398593</v>
@@ -7831,25 +7833,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4489.84440181831</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>4270.242936841251</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>3981.167710185449</v>
+        <v>4085.94048100173</v>
       </c>
       <c r="V46" t="n">
-        <v>3726.483221979563</v>
+        <v>3831.255992795844</v>
       </c>
       <c r="W46" t="n">
-        <v>3437.066051942602</v>
+        <v>3831.255992795844</v>
       </c>
       <c r="X46" t="n">
-        <v>3209.076501044584</v>
+        <v>3603.266441897827</v>
       </c>
       <c r="Y46" t="n">
-        <v>3209.076501044584</v>
+        <v>3382.473862754297</v>
       </c>
     </row>
   </sheetData>
@@ -23419,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>121.5862749664508</v>
+        <v>40.09910511160298</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23653,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>62.56111625485168</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>40.6433062151475</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>35.12774237125717</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>64.74262662649437</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24187,10 +24189,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>36.30694539606361</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>108.2431272522968</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,16 +24375,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.45968844823058</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>105.8997516910999</v>
       </c>
       <c r="C28" t="n">
-        <v>114.1735436840663</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24613,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>60.33736343303654</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>30.73901155626843</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>64.34558267474712</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>107.0485416471229</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25315,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>120.1578210480465</v>
+        <v>108.2431272522969</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25549,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>36.41624546988311</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>15.00954930701842</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>120.3791545843333</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>216.1389255780009</v>
       </c>
     </row>
     <row r="44">
@@ -26029,16 +26031,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,25 +26073,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>48.4226696372869</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>152.1477127454046</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>800996.6458930393</v>
+        <v>800996.6458930394</v>
       </c>
     </row>
     <row r="9">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="13">
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448199</v>
+        <v>636307.3716448202</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="L2" t="n">
         <v>625538.6147597546</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625538.614759755</v>
       </c>
       <c r="M2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073558</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.7441040526</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186732</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.6960418673</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="I4" t="n">
         <v>14826.69604186736</v>
@@ -26448,13 +26450,13 @@
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186741</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="N4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.6960418674</v>
+        <v>14826.69604186736</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482185</v>
+        <v>-893968.0587482183</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793737</v>
+        <v>434776.6869793738</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793741</v>
+        <v>434776.6869793744</v>
       </c>
       <c r="E6" t="n">
-        <v>184176.9270866248</v>
+        <v>184176.9270866252</v>
       </c>
       <c r="F6" t="n">
         <v>509589.3888939804</v>
       </c>
       <c r="G6" t="n">
-        <v>509589.3888939806</v>
+        <v>509589.3888939804</v>
       </c>
       <c r="H6" t="n">
+        <v>509589.3888939804</v>
+      </c>
+      <c r="I6" t="n">
+        <v>509589.3888939804</v>
+      </c>
+      <c r="J6" t="n">
+        <v>292058.1864967029</v>
+      </c>
+      <c r="K6" t="n">
+        <v>509589.3888939804</v>
+      </c>
+      <c r="L6" t="n">
+        <v>509589.3888939801</v>
+      </c>
+      <c r="M6" t="n">
+        <v>424534.3609584687</v>
+      </c>
+      <c r="N6" t="n">
         <v>509589.3888939805</v>
       </c>
-      <c r="I6" t="n">
+      <c r="O6" t="n">
         <v>509589.3888939802</v>
       </c>
-      <c r="J6" t="n">
-        <v>292058.1864967028</v>
-      </c>
-      <c r="K6" t="n">
+      <c r="P6" t="n">
         <v>509589.3888939801</v>
-      </c>
-      <c r="L6" t="n">
-        <v>509589.3888939805</v>
-      </c>
-      <c r="M6" t="n">
-        <v>424534.3609584688</v>
-      </c>
-      <c r="N6" t="n">
-        <v>509589.3888939804</v>
-      </c>
-      <c r="O6" t="n">
-        <v>509589.3888939804</v>
-      </c>
-      <c r="P6" t="n">
-        <v>509589.3888939804</v>
       </c>
     </row>
   </sheetData>
@@ -26787,34 +26789,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483761</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>277.9916741767214</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>149.0462161317527</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,7 +27435,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27552,10 +27554,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>247.2573636678421</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>45.19856870980786</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27625,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27673,16 +27675,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>111.4435131414779</v>
+        <v>375.4339993440136</v>
       </c>
     </row>
     <row r="6">
@@ -27786,13 +27788,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27821,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>257.7425173753801</v>
+        <v>256.2691725755062</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93.55127865263779</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>274.7677005521849</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27916,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28014,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8016831770715</v>
+        <v>184.9379421142692</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28144,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28281,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>-3.770613451100265e-12</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -31039,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>362.8934092184361</v>
       </c>
       <c r="M12" t="n">
-        <v>245.8118639189577</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>416.4300581532619</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,22 +32317,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N18" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32339,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817571</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>399.9031616963282</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>530.4152909475304</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162548</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>290.6810969936916</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>726.7533607666135</v>
       </c>
       <c r="N30" t="n">
-        <v>750.6021172789107</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>169.2687847673337</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>156.3072281639545</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067208</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>606.5820696732821</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33761,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33974,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>710.7237876039896</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>164.9290651940687</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34132,7 +34134,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34205,10 +34207,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,16 +34219,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>541.2980521010961</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34445,7 +34447,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34469,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127284</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034283</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966696</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O10" t="n">
-        <v>139.3114638567572</v>
+        <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106922</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.05128016014211</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>224.339029438562</v>
       </c>
       <c r="M12" t="n">
-        <v>103.6778299969394</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899036</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>274.2960242312436</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N18" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>261.348781916454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>399.073578864197</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462675</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>159.3393849103583</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>584.6193268445951</v>
       </c>
       <c r="N30" t="n">
-        <v>619.2604051955774</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>27.13475084531539</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>22.33282074962425</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236314895</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>463.9858252288377</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>568.5897536819714</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>22.33282074962425</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37780,7 +37782,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37853,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,16 +37867,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38093,7 +38095,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2462441.371413141</v>
+        <v>2458428.761399148</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>104.7421674867591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -721,13 +721,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>79.76470074482877</v>
       </c>
     </row>
     <row r="3">
@@ -755,7 +755,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -816,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>38.6900099114044</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>180.5110866792293</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>281.8953352974216</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -949,22 +949,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.80393931203998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I6" t="n">
         <v>18.81721868247742</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>110.928091294372</v>
       </c>
       <c r="U7" t="n">
-        <v>29.94266563010669</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>317.1191748890795</v>
       </c>
       <c r="H8" t="n">
-        <v>19.84006383513551</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.2532214802698</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>101.2738960913436</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>108.5163679066094</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1587,7 +1587,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1621,7 +1621,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1767,13 +1767,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>104.6857048437762</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1782,7 +1782,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>73.98898794535489</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>111.306220275312</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428166</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>189.4027099929735</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>59.00369384633101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.93222849083736</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>50.5268247622971</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>41.55695577161193</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>82.08837997182205</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>40.37234576591548</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>66.25628701154712</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3909,7 +3909,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3957,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>190.4281593935562</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.445727774093873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>134.0367616438396</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1555.338782035317</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C2" t="n">
-        <v>1186.376265094905</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D2" t="n">
-        <v>828.1105664881544</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4354,13 +4354,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
@@ -4369,13 +4369,13 @@
         <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2424.744041450753</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2051.278283189673</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1661.138951213861</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
         <v>85.51940803064545</v>
@@ -4409,52 +4409,52 @@
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>359.619250712236</v>
+        <v>739.2385409879452</v>
       </c>
       <c r="C4" t="n">
-        <v>359.619250712236</v>
+        <v>570.3023580600383</v>
       </c>
       <c r="D4" t="n">
-        <v>359.619250712236</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="E4" t="n">
-        <v>359.619250712236</v>
+        <v>420.1857186477025</v>
       </c>
       <c r="F4" t="n">
-        <v>212.7293032143256</v>
+        <v>273.2957711497921</v>
       </c>
       <c r="G4" t="n">
-        <v>212.7293032143256</v>
+        <v>105.5929345245111</v>
       </c>
       <c r="H4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4512,28 +4512,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T4" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U4" t="n">
-        <v>541.9536817013565</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V4" t="n">
-        <v>541.9536817013565</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W4" t="n">
-        <v>541.9536817013565</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X4" t="n">
-        <v>359.619250712236</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y4" t="n">
-        <v>359.619250712236</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1941.127034633561</v>
+        <v>2244.121949002409</v>
       </c>
       <c r="C5" t="n">
-        <v>1572.164517693149</v>
+        <v>1875.159432061997</v>
       </c>
       <c r="D5" t="n">
-        <v>1213.898819086399</v>
+        <v>1516.893733455247</v>
       </c>
       <c r="E5" t="n">
-        <v>828.1105664881544</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176916</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906802</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="X5" t="n">
-        <v>1952.040104645722</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="Y5" t="n">
-        <v>1941.127034633561</v>
+        <v>2630.721789066531</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4652,46 +4652,46 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>380.4321398396066</v>
+        <v>527.322087337517</v>
       </c>
       <c r="C7" t="n">
-        <v>380.4321398396066</v>
+        <v>527.322087337517</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>527.322087337517</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
         <v>380.4321398396066</v>
@@ -4719,16 +4719,16 @@
         <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
         <v>332.3555681596505</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.8870058181849</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>920.8870058181849</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>527.322087337517</v>
       </c>
       <c r="U7" t="n">
-        <v>890.6418890200973</v>
+        <v>527.322087337517</v>
       </c>
       <c r="V7" t="n">
-        <v>890.6418890200973</v>
+        <v>527.322087337517</v>
       </c>
       <c r="W7" t="n">
-        <v>601.2247189831368</v>
+        <v>527.322087337517</v>
       </c>
       <c r="X7" t="n">
-        <v>601.2247189831368</v>
+        <v>527.322087337517</v>
       </c>
       <c r="Y7" t="n">
-        <v>380.4321398396066</v>
+        <v>527.322087337517</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1681.836054204827</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C8" t="n">
-        <v>1312.873537264415</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D8" t="n">
-        <v>954.6078386576646</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E8" t="n">
-        <v>954.6078386576646</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="F8" t="n">
-        <v>543.6219338680571</v>
+        <v>684.4181157012742</v>
       </c>
       <c r="G8" t="n">
-        <v>128.5494837130536</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204827</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="9">
@@ -4874,16 +4874,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>626.9042569062802</v>
+        <v>920.887005818185</v>
       </c>
       <c r="C10" t="n">
-        <v>457.9680739783734</v>
+        <v>920.887005818185</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>770.7703664058492</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959802</v>
+        <v>622.8572728234561</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>475.9673253255457</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R10" t="n">
-        <v>920.8870058181849</v>
+        <v>920.887005818185</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450112</v>
+        <v>920.887005818185</v>
       </c>
       <c r="U10" t="n">
-        <v>626.9042569062802</v>
+        <v>920.887005818185</v>
       </c>
       <c r="V10" t="n">
-        <v>626.9042569062802</v>
+        <v>920.887005818185</v>
       </c>
       <c r="W10" t="n">
-        <v>626.9042569062802</v>
+        <v>920.887005818185</v>
       </c>
       <c r="X10" t="n">
-        <v>626.9042569062802</v>
+        <v>920.887005818185</v>
       </c>
       <c r="Y10" t="n">
-        <v>626.9042569062802</v>
+        <v>920.887005818185</v>
       </c>
     </row>
     <row r="11">
@@ -5029,61 +5029,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075824</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>768.5380889459545</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>599.6019060180477</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853357</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580257</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832659</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510505</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1688.385853854702</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1398.968683817742</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.979132919724</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>950.1865537761943</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,37 +5290,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,28 +5351,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C16" t="n">
-        <v>697.5276345711974</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="17">
@@ -5509,55 +5509,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.2946447138411</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3584617859342</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>597.2418223735984</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,28 +5734,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,7 +5767,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5940,22 +5940,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1172.569791909146</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>951.777212765616</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,31 +5980,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3233.200736907821</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>3414.849201738061</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,19 +6214,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,25 +6302,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>620.8230468926974</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>620.8230468926974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>470.7064074803617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>917.5010142286973</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C31" t="n">
-        <v>748.5648313007904</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D31" t="n">
-        <v>748.5648313007904</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>600.6517377183973</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>453.7617902204869</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>286.5656909353668</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>144.8538597775649</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2404.986360578632</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>2185.384895601574</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1896.309668945771</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1641.625180739884</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1352.208010702924</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1124.218459804906</v>
       </c>
       <c r="Y31" t="n">
-        <v>1099.149479058937</v>
+        <v>903.4258806613763</v>
       </c>
     </row>
     <row r="32">
@@ -6694,40 +6694,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>741.8431516380886</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>572.9069687101817</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>572.9069687101817</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,25 +7013,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3233.200736907821</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>3064.264553979915</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3932.255922673039</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3642.838752636078</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3414.849201738061</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3414.849201738061</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>747.3737171343192</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>597.2570777219835</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>302.45403664168</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>302.45403664168</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>160.7422054838781</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075813</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7490,22 +7490,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2149.810879820877</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.777212765616</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377091</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7605,16 +7605,16 @@
         <v>1907.987318831765</v>
       </c>
       <c r="V43" t="n">
-        <v>1653.302830625878</v>
+        <v>1715.635642676658</v>
       </c>
       <c r="W43" t="n">
-        <v>1363.885660588917</v>
+        <v>1426.218472639697</v>
       </c>
       <c r="X43" t="n">
-        <v>1135.8961096909</v>
+        <v>1198.22892174168</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595856</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7727,28 +7727,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3200.825397924057</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>3031.88921499615</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>4085.94048100173</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>3831.255992795844</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>3831.255992795844</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>3603.266441897827</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>3382.473862754297</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>40.09910511160298</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>62.56111625485168</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>144.5956654067399</v>
       </c>
     </row>
     <row r="17">
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>35.12774237125717</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>36.30694539606361</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>108.2431272522968</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>105.8997516910999</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>30.73901155626843</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>139.4693302300327</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>64.34558267474712</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>108.2431272522969</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>15.00954930701842</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,10 +25599,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25797,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25845,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>61.70948393027183</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.1389255780009</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>152.1477127454046</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>800996.6458930394</v>
+        <v>800996.6458930393</v>
       </c>
     </row>
     <row r="9">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448201</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.3716448196</v>
+        <v>636307.37164482</v>
       </c>
       <c r="D2" t="n">
         <v>636307.3716448202</v>
@@ -26325,7 +26325,7 @@
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
@@ -26343,19 +26343,19 @@
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625538.6147597547</v>
+      </c>
+      <c r="O2" t="n">
         <v>625538.614759755</v>
       </c>
-      <c r="N2" t="n">
-        <v>625538.614759755</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597547</v>
-      </c>
       <c r="P2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551181</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405256</v>
       </c>
       <c r="C4" t="n">
         <v>93596.74410405256</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405249</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482183</v>
+        <v>-893968.0587482189</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793738</v>
+        <v>434776.6869793741</v>
       </c>
       <c r="D6" t="n">
         <v>434776.6869793744</v>
       </c>
       <c r="E6" t="n">
-        <v>184176.9270866252</v>
+        <v>183829.5478322681</v>
       </c>
       <c r="F6" t="n">
-        <v>509589.3888939804</v>
+        <v>509242.0096396236</v>
       </c>
       <c r="G6" t="n">
-        <v>509589.3888939804</v>
+        <v>509242.0096396234</v>
       </c>
       <c r="H6" t="n">
-        <v>509589.3888939804</v>
+        <v>509242.0096396235</v>
       </c>
       <c r="I6" t="n">
-        <v>509589.3888939804</v>
+        <v>509242.0096396234</v>
       </c>
       <c r="J6" t="n">
-        <v>292058.1864967029</v>
+        <v>291710.8072423459</v>
       </c>
       <c r="K6" t="n">
-        <v>509589.3888939804</v>
+        <v>509242.0096396234</v>
       </c>
       <c r="L6" t="n">
-        <v>509589.3888939801</v>
+        <v>509242.0096396231</v>
       </c>
       <c r="M6" t="n">
-        <v>424534.3609584687</v>
+        <v>424186.9817041115</v>
       </c>
       <c r="N6" t="n">
-        <v>509589.3888939805</v>
+        <v>509242.0096396233</v>
       </c>
       <c r="O6" t="n">
-        <v>509589.3888939802</v>
+        <v>509242.0096396235</v>
       </c>
       <c r="P6" t="n">
-        <v>509589.3888939801</v>
+        <v>509242.0096396234</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>277.9916741767214</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>306.4732379112248</v>
       </c>
     </row>
     <row r="3">
@@ -27536,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27551,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>106.0650050029164</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,7 +27593,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>45.19856870980786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>100.0350347748401</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>375.4339993440136</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,7 +27785,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>108.6208579817972</v>
       </c>
       <c r="U7" t="n">
-        <v>256.2691725755062</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>93.80255076437396</v>
       </c>
       <c r="H8" t="n">
-        <v>274.7677005521849</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>1.772586778758438</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>184.9379421142692</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28146,7 +28146,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28283,7 +28283,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -31621,10 +31621,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,34 +32068,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>652.0478969157701</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32469,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>530.4152909475304</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32800,16 +32800,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32970,7 +32970,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,13 +33037,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>606.5820696732821</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33271,16 +33271,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>726.7533607666135</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33496,10 +33496,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33508,16 +33508,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>169.2687847673337</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>606.5820696732821</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33979,22 +33979,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>710.7237876039896</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34128,13 +34128,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34210,7 +34210,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34225,10 +34225,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>541.2980521010961</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34447,7 +34447,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>512.9101366533182</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35269,10 +35269,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>224.339029438562</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899036</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>509.9138629937518</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>399.073578864197</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36448,16 +36448,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,13 +36685,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>463.9858252288377</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36919,16 +36919,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>584.6193268445951</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37156,16 +37156,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>27.13475084531539</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>463.9858252288377</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,22 +37627,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>568.5897536819714</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37776,13 +37776,13 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37858,7 +37858,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37873,10 +37873,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>407.3236446867659</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,7 +38095,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>370.3138922088737</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_23_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2458428.761399148</v>
+        <v>2460189.291701934</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>79.76470074482877</v>
+        <v>23.79925355567413</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>38.6900099114044</v>
+        <v>38.69000991140441</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -904,10 +904,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>281.8953352974216</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>302.5334423830801</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -992,7 +992,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851095</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
         <v>18.81721868247742</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>94.57983363107959</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>110.928091294372</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>317.1191748890795</v>
+        <v>269.2562275335326</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>131.5522128412688</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.2532214802698</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1426,7 +1426,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>26.13627195705873</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1615,13 +1615,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,16 +1776,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>178.9060413124616</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.98898794535489</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>73.44478684180568</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428166</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2572,7 +2572,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>41.55695577161193</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>284.0339611927405</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3082,7 +3082,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3192,13 +3192,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3322,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3909,13 +3909,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>239.7247859410132</v>
       </c>
       <c r="V43" t="n">
-        <v>190.4281593935562</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1617.939223126803</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
         <v>1617.939223126803</v>
@@ -4327,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
-        <v>1617.939223126803</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4482,16 +4482,16 @@
         <v>105.5929345245111</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
         <v>332.3555681596505</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2244.121949002409</v>
+        <v>1853.982617026598</v>
       </c>
       <c r="C5" t="n">
-        <v>1875.159432061997</v>
+        <v>1485.020100086186</v>
       </c>
       <c r="D5" t="n">
-        <v>1516.893733455247</v>
+        <v>1126.754401479436</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1126.754401479436</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4603,16 +4603,16 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="X5" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="Y5" t="n">
-        <v>2630.721789066531</v>
+        <v>2240.58245709072</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,13 +4701,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>527.322087337517</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="C7" t="n">
-        <v>527.322087337517</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>527.322087337517</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
         <v>527.322087337517</v>
@@ -4749,28 +4749,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>639.3706644025392</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>527.322087337517</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>527.322087337517</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>527.322087337517</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>527.322087337517</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>527.322087337517</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
-        <v>527.322087337517</v>
+        <v>920.8870058181849</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038044</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.669719097632</v>
+        <v>1535.524858594926</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490882</v>
+        <v>1177.259159988175</v>
       </c>
       <c r="E8" t="n">
-        <v>1095.404020490882</v>
+        <v>791.470907389931</v>
       </c>
       <c r="F8" t="n">
-        <v>684.4181157012742</v>
+        <v>380.4850026003234</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102166</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="9">
@@ -4880,16 +4880,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>920.887005818185</v>
+        <v>518.4459618444147</v>
       </c>
       <c r="C10" t="n">
-        <v>920.887005818185</v>
+        <v>349.5097789165078</v>
       </c>
       <c r="D10" t="n">
-        <v>770.7703664058492</v>
+        <v>199.3931395041721</v>
       </c>
       <c r="E10" t="n">
-        <v>622.8572728234561</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>475.9673253255457</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.887005818185</v>
+        <v>700.0944266746544</v>
       </c>
     </row>
     <row r="11">
@@ -5029,49 +5029,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075824</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>814.4194208819173</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121648</v>
+        <v>664.3027814695815</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121648</v>
+        <v>516.3896878871884</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121648</v>
+        <v>369.499740389278</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>202.303641104158</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="15">
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>726.955532171245</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>558.0193492433381</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1796.747907467618</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1542.063419261731</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614391</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y16" t="n">
-        <v>908.6039970014847</v>
+        <v>803.8641191832228</v>
       </c>
     </row>
     <row r="17">
@@ -5509,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5533,31 +5533,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>1090.767110287001</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>921.8309273590944</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>771.7142879467586</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>623.8011943643655</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>476.9112468664551</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>309.7151475813351</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>168.0033164235332</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>1272.415575117241</v>
       </c>
     </row>
     <row r="20">
@@ -5746,10 +5746,10 @@
         <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,37 +6208,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7774158311365</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032296</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6648,25 +6648,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2404.986360578632</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2185.384895601574</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1896.309668945771</v>
+        <v>1757.603793154328</v>
       </c>
       <c r="V31" t="n">
-        <v>1641.625180739884</v>
+        <v>1502.919304948441</v>
       </c>
       <c r="W31" t="n">
-        <v>1352.208010702924</v>
+        <v>1213.50213491148</v>
       </c>
       <c r="X31" t="n">
-        <v>1124.218459804906</v>
+        <v>985.5125840134626</v>
       </c>
       <c r="Y31" t="n">
-        <v>903.4258806613763</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7086,10 +7086,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7189,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7311,19 +7311,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7599,22 +7599,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1907.987318831765</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1715.635642676658</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1426.218472639697</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1198.22892174168</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7830,7 +7830,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
         <v>2254.869721166297</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>107.2784330767826</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>144.5956654067399</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>7.821049476759853</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24144,7 +24144,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>139.4693302300327</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>2.150513196503653</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25080,13 +25080,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>180.5336875992872</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25551,7 +25551,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25797,13 +25797,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25839,13 +25839,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="V43" t="n">
-        <v>61.70948393027183</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>800996.6458930393</v>
+        <v>800996.6458930394</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>800996.6458930393</v>
+        <v>800996.6458930394</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>800996.6458930393</v>
+        <v>800996.6458930394</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="C2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448202</v>
+        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597545</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405256</v>
+        <v>93596.74410405253</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405249</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="E4" t="n">
         <v>14826.69604186736</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.0587482189</v>
+        <v>-893968.0587482183</v>
       </c>
       <c r="C6" t="n">
-        <v>434776.6869793741</v>
+        <v>434776.6869793738</v>
       </c>
       <c r="D6" t="n">
-        <v>434776.6869793744</v>
+        <v>434776.6869793745</v>
       </c>
       <c r="E6" t="n">
-        <v>183829.5478322681</v>
+        <v>184142.1891611892</v>
       </c>
       <c r="F6" t="n">
-        <v>509242.0096396236</v>
+        <v>509554.6509685448</v>
       </c>
       <c r="G6" t="n">
-        <v>509242.0096396234</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="H6" t="n">
-        <v>509242.0096396235</v>
+        <v>509554.6509685444</v>
       </c>
       <c r="I6" t="n">
-        <v>509242.0096396234</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="J6" t="n">
-        <v>291710.8072423459</v>
+        <v>292023.4485712671</v>
       </c>
       <c r="K6" t="n">
-        <v>509242.0096396234</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="L6" t="n">
-        <v>509242.0096396231</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="M6" t="n">
-        <v>424186.9817041115</v>
+        <v>424499.6230330328</v>
       </c>
       <c r="N6" t="n">
-        <v>509242.0096396233</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="O6" t="n">
-        <v>509242.0096396235</v>
+        <v>509554.6509685447</v>
       </c>
       <c r="P6" t="n">
-        <v>509242.0096396234</v>
+        <v>509554.6509685445</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>306.4732379112248</v>
+        <v>362.4386851003795</v>
       </c>
     </row>
     <row r="3">
@@ -27624,10 +27624,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>100.0350347748401</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>104.3426033586313</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,13 +27776,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>72.66698746754824</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>108.6208579817972</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>93.80255076437396</v>
+        <v>141.6654981199208</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>14.88174980530042</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>1.772586778758438</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,31 +32068,31 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
